--- a/venv/main/output_x_2e-2.xlsx
+++ b/venv/main/output_x_2e-2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\managing multi-rooming\round 3\REcodes\venv\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A4466A-F012-4C1D-9EE7-C9CB6EA5F02D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCE6BA8-47D0-487E-BF03-C49709C7CC93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18054" windowHeight="4812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7806" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -59,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,22 +75,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,14 +115,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -441,21 +423,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="3" max="3" width="15.26171875" customWidth="1"/>
-    <col min="4" max="4" width="17.20703125" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="15.578125" customWidth="1"/>
-    <col min="10" max="10" width="15.3125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
@@ -518,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.5078125000000291E-2</v>
+        <v>2.507812500000026E-2</v>
       </c>
       <c r="J2">
         <v>0.37499999999999972</v>
@@ -553,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.4921875000000291E-2</v>
+        <v>2.492187500000026E-2</v>
       </c>
       <c r="J3">
         <v>0.37265624999999969</v>
@@ -585,7 +560,7 @@
         <v>0.39</v>
       </c>
       <c r="H4">
-        <v>1.257812500000029E-2</v>
+        <v>1.2578125000000259E-2</v>
       </c>
       <c r="I4">
         <v>1.2519531250000011E-2</v>
@@ -620,7 +595,7 @@
         <v>0.39500000000000002</v>
       </c>
       <c r="H5">
-        <v>4.9375000000000023E-2</v>
+        <v>4.9374999999999988E-2</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -655,7 +630,7 @@
         <v>0.40500000000000003</v>
       </c>
       <c r="H6">
-        <v>4.7500000000000563E-2</v>
+        <v>4.7500000000000528E-2</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -664,7 +639,7 @@
         <v>0.32812499999999972</v>
       </c>
       <c r="K6">
-        <v>3.7913281250000028E-2</v>
+        <v>3.7913281250000021E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -690,7 +665,7 @@
         <v>0.41499999999999998</v>
       </c>
       <c r="H7">
-        <v>4.5625000000000013E-2</v>
+        <v>4.5624999999999992E-2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -699,7 +674,7 @@
         <v>0.31499999999999972</v>
       </c>
       <c r="K7">
-        <v>3.7357812499999969E-2</v>
+        <v>3.7357812499999962E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -725,7 +700,7 @@
         <v>0.41749999999999998</v>
       </c>
       <c r="H8">
-        <v>9.6455078124999954E-2</v>
+        <v>9.6455078124999913E-2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -734,7 +709,7 @@
         <v>0.25886718749999998</v>
       </c>
       <c r="K8">
-        <v>3.6815481567382811E-2</v>
+        <v>3.6815481567382798E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -760,7 +735,7 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="H9">
-        <v>0.1158691406250002</v>
+        <v>0.1158691406250001</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -795,7 +770,7 @@
         <v>0.42749999999999999</v>
       </c>
       <c r="H10" s="2">
-        <v>0.16464843749999991</v>
+        <v>0.1646484374999998</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
@@ -815,7 +790,7 @@
         <v>0.35499999999999998</v>
       </c>
       <c r="C11" s="2">
-        <v>3.7851562500000303E-2</v>
+        <v>3.7851562500000269E-2</v>
       </c>
       <c r="D11" s="2">
         <v>0.36249999999999971</v>
@@ -830,7 +805,7 @@
         <v>0.4325</v>
       </c>
       <c r="H11" s="2">
-        <v>0.2055859374999999</v>
+        <v>0.20558593749999979</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
@@ -839,42 +814,42 @@
         <v>0.13101562500000011</v>
       </c>
       <c r="K11" s="2">
-        <v>3.5238623046875001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3">
+        <v>3.5238623046874987E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
         <v>0.125</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>0.35499999999999998</v>
       </c>
-      <c r="C12" s="3">
-        <v>6.2695312500000322E-2</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="2">
+        <v>6.2695312500000294E-2</v>
+      </c>
+      <c r="D12" s="2">
         <v>0.3332812499999997</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>3.5417211914062503E-2</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>0.38250000000000001</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>0.4375</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>0.22801757812500029</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
         <v>0.10253906249999969</v>
       </c>
-      <c r="K12" s="3">
-        <v>3.4800778198242191E-2</v>
+      <c r="K12" s="2">
+        <v>3.4800778198242177E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -885,13 +860,13 @@
         <v>0.35249999999999998</v>
       </c>
       <c r="C13" s="2">
-        <v>9.4189453125000377E-2</v>
+        <v>9.4189453125000322E-2</v>
       </c>
       <c r="D13" s="2">
         <v>0.30050781249999969</v>
       </c>
       <c r="E13" s="2">
-        <v>3.5165341186523452E-2</v>
+        <v>3.5165341186523438E-2</v>
       </c>
       <c r="F13" s="2">
         <v>0.38250000000000001</v>
@@ -920,7 +895,7 @@
         <v>0.35249999999999998</v>
       </c>
       <c r="C14" s="2">
-        <v>0.1185644531250004</v>
+        <v>0.1185644531250003</v>
       </c>
       <c r="D14" s="2">
         <v>0.27246093749999972</v>
@@ -935,7 +910,7 @@
         <v>0.41</v>
       </c>
       <c r="H14" s="2">
-        <v>0.37125000000000008</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -944,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="2">
-        <v>3.4224609375000013E-2</v>
+        <v>3.4224609374999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -961,7 +936,7 @@
         <v>0.2406249999999997</v>
       </c>
       <c r="E15" s="2">
-        <v>3.47421875E-2</v>
+        <v>3.4742187499999987E-2</v>
       </c>
       <c r="F15" s="2">
         <v>0.35249999999999998</v>
@@ -970,7 +945,7 @@
         <v>0.40500000000000003</v>
       </c>
       <c r="H15" s="2">
-        <v>0.37125000000000008</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
@@ -979,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="2">
-        <v>3.4224609375000013E-2</v>
+        <v>3.4224609374999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -990,13 +965,13 @@
         <v>0.35</v>
       </c>
       <c r="C16" s="2">
-        <v>0.17390625000000029</v>
+        <v>0.17390625000000021</v>
       </c>
       <c r="D16" s="2">
         <v>0.21374999999999969</v>
       </c>
       <c r="E16" s="2">
-        <v>3.4572070312500001E-2</v>
+        <v>3.4572070312499988E-2</v>
       </c>
       <c r="F16" s="2">
         <v>0.35249999999999998</v>
@@ -1005,7 +980,7 @@
         <v>0.4</v>
       </c>
       <c r="H16" s="2">
-        <v>0.37125000000000008</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -1014,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="2">
-        <v>3.4224609375000013E-2</v>
+        <v>3.4224609374999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1025,7 +1000,7 @@
         <v>0.35</v>
       </c>
       <c r="C17" s="2">
-        <v>0.19750000000000029</v>
+        <v>0.1975000000000002</v>
       </c>
       <c r="D17" s="2">
         <v>0.18749999999999969</v>
@@ -1040,7 +1015,7 @@
         <v>0.39500000000000002</v>
       </c>
       <c r="H17" s="2">
-        <v>0.37125000000000008</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -1049,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="2">
-        <v>3.4224609375000013E-2</v>
+        <v>3.4224609374999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1060,13 +1035,13 @@
         <v>0.35</v>
       </c>
       <c r="C18" s="2">
-        <v>0.22078125000000029</v>
+        <v>0.22078125000000021</v>
       </c>
       <c r="D18" s="2">
         <v>0.16187499999999971</v>
       </c>
       <c r="E18" s="2">
-        <v>3.4310351562500008E-2</v>
+        <v>3.4310351562499987E-2</v>
       </c>
       <c r="F18" s="2">
         <v>0.35249999999999998</v>
@@ -1075,7 +1050,7 @@
         <v>0.39</v>
       </c>
       <c r="H18" s="2">
-        <v>0.37125000000000008</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
@@ -1084,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="2">
-        <v>3.4224609375000013E-2</v>
+        <v>3.4224609374999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1095,7 +1070,7 @@
         <v>0.34749999999999998</v>
       </c>
       <c r="C19">
-        <v>0.25184570312500032</v>
+        <v>0.25184570312500021</v>
       </c>
       <c r="D19">
         <v>0.1320703124999997</v>
@@ -1110,7 +1085,7 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="H19">
-        <v>0.37125000000000008</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1119,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.4224609375000013E-2</v>
+        <v>3.4224609374999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1130,7 +1105,7 @@
         <v>0.34749999999999998</v>
       </c>
       <c r="C20">
-        <v>0.27465820312500028</v>
+        <v>0.27465820312500022</v>
       </c>
       <c r="D20">
         <v>0.1076171874999997</v>
@@ -1145,7 +1120,7 @@
         <v>0.38</v>
       </c>
       <c r="H20">
-        <v>0.37125000000000008</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1154,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.4224609375000013E-2</v>
+        <v>3.4224609374999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1165,7 +1140,7 @@
         <v>0.34749999999999998</v>
       </c>
       <c r="C21">
-        <v>0.2971582031250003</v>
+        <v>0.29715820312500019</v>
       </c>
       <c r="D21">
         <v>8.3789062499999664E-2</v>
@@ -1180,7 +1155,7 @@
         <v>0.375</v>
       </c>
       <c r="H21">
-        <v>0.37125000000000008</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1189,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.4224609375000013E-2</v>
+        <v>3.4224609374999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1215,7 +1190,7 @@
         <v>0.37</v>
       </c>
       <c r="H22">
-        <v>0.37125000000000008</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1224,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.4224609375000013E-2</v>
+        <v>3.4224609374999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1250,7 +1225,7 @@
         <v>0.36499999999999999</v>
       </c>
       <c r="H23">
-        <v>0.37125000000000008</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1259,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.4224609375000013E-2</v>
+        <v>3.4224609374999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1285,7 +1260,7 @@
         <v>0.36</v>
       </c>
       <c r="H24">
-        <v>0.37125000000000008</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1294,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.4224609375000013E-2</v>
+        <v>3.4224609374999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1305,13 +1280,13 @@
         <v>0.35</v>
       </c>
       <c r="C25">
-        <v>0.375</v>
+        <v>0.37499999999999989</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>3.4218750000000013E-2</v>
+        <v>3.4218749999999999E-2</v>
       </c>
       <c r="F25">
         <v>0.35249999999999998</v>
@@ -1320,7 +1295,7 @@
         <v>0.35499999999999998</v>
       </c>
       <c r="H25">
-        <v>0.37125000000000008</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1329,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.4224609375000013E-2</v>
+        <v>3.4224609374999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1355,7 +1330,7 @@
         <v>0.35</v>
       </c>
       <c r="H26">
-        <v>0.37125000000000008</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1364,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>3.4224609375000013E-2</v>
+        <v>3.4224609374999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1390,7 +1365,7 @@
         <v>0.34499999999999997</v>
       </c>
       <c r="H27">
-        <v>0.37125000000000008</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1399,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>3.4224609375000013E-2</v>
+        <v>3.4224609374999999E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1425,7 +1400,7 @@
         <v>0.34</v>
       </c>
       <c r="H28">
-        <v>0.37125000000000008</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1434,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>3.4224609375000013E-2</v>
+        <v>3.4224609374999999E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1460,7 +1435,7 @@
         <v>0.33500000000000002</v>
       </c>
       <c r="H29">
-        <v>0.37125000000000008</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1469,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>3.4224609375000013E-2</v>
+        <v>3.4224609374999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1495,20 +1470,160 @@
         <v>0.33</v>
       </c>
       <c r="H30">
+        <v>0.37125000000000002</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>3.4224609374999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>0.1725000000000001</v>
+      </c>
+      <c r="B31">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C31">
         <v>0.37125000000000008</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <v>3.4224609375000013E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G31">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="H31">
+        <v>0.37125000000000002</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>3.4224609374999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>0.1750000000000001</v>
+      </c>
+      <c r="B32">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C32">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>3.4224609375000013E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G32">
+        <v>0.32</v>
+      </c>
+      <c r="H32">
+        <v>0.37125000000000002</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>3.4224609374999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>0.1775000000000001</v>
+      </c>
+      <c r="B33">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C33">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>3.4224609375000013E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G33">
+        <v>0.315</v>
+      </c>
+      <c r="H33">
+        <v>0.37125000000000002</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>3.4224609374999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>0.1800000000000001</v>
+      </c>
+      <c r="B34">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C34">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>3.4224609375000013E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G34">
+        <v>0.31</v>
+      </c>
+      <c r="H34">
+        <v>0.37125000000000002</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>3.4224609374999999E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>